--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>RunMode</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Toyota Cars</t>
-  </si>
-  <si>
-    <t>tata</t>
   </si>
 </sst>
 </file>
@@ -393,7 +390,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -460,10 +457,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -40,9 +40,6 @@
     <t>Kia</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>expectedTitle</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>Toyota Cars</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -407,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -421,7 +421,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -435,10 +435,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -446,13 +446,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -463,10 +463,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
